--- a/SpringBootCache.xlsx
+++ b/SpringBootCache.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="8"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="前序" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,14 @@
     <sheet name="Case5" sheetId="7" r:id="rId6"/>
     <sheet name="Case6" sheetId="8" r:id="rId7"/>
     <sheet name="结束语" sheetId="9" r:id="rId8"/>
-    <sheet name="代码" sheetId="10" r:id="rId9"/>
+    <sheet name="代码资料" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="188">
   <si>
     <t>前序</t>
   </si>
@@ -210,10 +210,28 @@
     <t>@CacheConfig</t>
   </si>
   <si>
+    <t>类级别的信息</t>
+  </si>
+  <si>
     <t>@Caching</t>
   </si>
   <si>
     <t>3. 都有那些属性</t>
+  </si>
+  <si>
+    <t>更新的时候</t>
+  </si>
+  <si>
+    <t>检索的时候</t>
+  </si>
+  <si>
+    <t>unless</t>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>×</t>
   </si>
   <si>
     <t>cacheManager</t>
@@ -240,13 +258,13 @@
     <t>缓存前缀名，value的别名</t>
   </si>
   <si>
+    <t>判定</t>
+  </si>
+  <si>
     <t>condition</t>
   </si>
   <si>
     <t>执行前条件判断</t>
-  </si>
-  <si>
-    <t>unless</t>
   </si>
   <si>
     <t>执行后条件判断</t>
@@ -850,25 +868,58 @@
     <t>SimpleCacheErrorHandler</t>
   </si>
   <si>
+    <t>MyCacheWriter</t>
+  </si>
+  <si>
+    <t>CachingConfigurer</t>
+  </si>
+  <si>
     <t>2.缓存层整体出现问题</t>
+  </si>
+  <si>
+    <t>Redis整体挂了</t>
+  </si>
+  <si>
+    <t>CacheInterceptor</t>
   </si>
   <si>
     <t>问题3:缓存更新策略</t>
   </si>
   <si>
+    <t>粗糙的解决方法</t>
+  </si>
+  <si>
+    <t>execute</t>
+  </si>
+  <si>
     <t>1.延迟加载</t>
+  </si>
+  <si>
+    <t>aaa</t>
   </si>
   <si>
     <t>dbUpdate -&gt; CacheEvict</t>
   </si>
   <si>
+    <t>aopAllianceInvoker</t>
+  </si>
+  <si>
     <t>dbSelect -&gt; Cacheable</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>exception</t>
   </si>
   <si>
     <t>2.保持一致</t>
   </si>
   <si>
     <t>dbUpdate -&gt; CachePut</t>
+  </si>
+  <si>
+    <t>catch</t>
   </si>
   <si>
     <t>3.是否开启事务管理</t>
@@ -878,9 +929,6 @@
   </si>
   <si>
     <t>@EnableCaching -&gt; ProxyCachingConfiguration</t>
-  </si>
-  <si>
-    <t>CacheInterceptor</t>
   </si>
   <si>
     <t>CacheAspectSupport</t>
@@ -1013,7 +1061,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1021,7 +1068,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1859,6 +1906,1967 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>164465</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5798820" y="1384935"/>
+          <a:ext cx="1223645" cy="441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>AP </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>应用程序</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>603885</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8147685" y="1370330"/>
+          <a:ext cx="1297305" cy="570865"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>501015</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7109460" y="1535430"/>
+          <a:ext cx="935355" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>378460</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>56515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>230505</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5864860" y="3247390"/>
+          <a:ext cx="1223645" cy="441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>AP </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>应用程序</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>582930</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>121285</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8201025" y="3284220"/>
+          <a:ext cx="1297305" cy="570865"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>303530</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>553085</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121285</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7161530" y="3493135"/>
+          <a:ext cx="935355" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>54610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6976110" y="2702560"/>
+          <a:ext cx="605790" cy="436880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>150495</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7694295" y="2226945"/>
+          <a:ext cx="1297305" cy="570865"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>Cache</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>337820</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10795</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7195820" y="1752600"/>
+          <a:ext cx="789940" cy="1270"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>377190</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>481330</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7235190" y="3667760"/>
+          <a:ext cx="789940" cy="1270"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>629920</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>315595</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="椭圆 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7487920" y="3439160"/>
+          <a:ext cx="371475" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>163195</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>534670</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="椭圆 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7021195" y="2771140"/>
+          <a:ext cx="371475" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419735</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>271780</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>113030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="圆角矩形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020935" y="3404870"/>
+          <a:ext cx="1223645" cy="441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>AP </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>应用程序</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>675640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>601345</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="圆角矩形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11648440" y="3187700"/>
+          <a:ext cx="1297305" cy="570865"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>613410</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="圆角矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10974705" y="2308860"/>
+          <a:ext cx="1297305" cy="570865"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>Cache</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>31115</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>636905</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10318115" y="2868930"/>
+          <a:ext cx="605790" cy="436880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>249555</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>116840</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10536555" y="2986405"/>
+          <a:ext cx="553085" cy="384810"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>173990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>113665</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="文本框 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5570220" y="650240"/>
+          <a:ext cx="1401445" cy="403225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>缓存层出现以前</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144145</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="文本框 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="1979295"/>
+          <a:ext cx="1401445" cy="403225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>缓存层出现之后</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>140</xdr:row>
@@ -1877,7 +3885,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11649075" y="45300900"/>
+          <a:off x="11497310" y="45300900"/>
           <a:ext cx="11430" cy="7381875"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2065,7 +4073,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1490345" y="38814375"/>
-          <a:ext cx="6111875" cy="4639310"/>
+          <a:ext cx="5960110" cy="4639310"/>
           <a:chOff x="6835" y="11561"/>
           <a:chExt cx="9663" cy="3823"/>
         </a:xfrm>
@@ -4314,7 +6322,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8210550" y="45659675"/>
+          <a:off x="8058785" y="45659675"/>
           <a:ext cx="480695" cy="6729095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4464,7 +6472,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11129010" y="44905295"/>
+          <a:off x="10977245" y="44905295"/>
           <a:ext cx="960120" cy="363220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4621,7 +6629,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2187575" y="47305595"/>
-          <a:ext cx="6032500" cy="5080"/>
+          <a:ext cx="5880735" cy="5080"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4668,7 +6676,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="4857115" y="47758350"/>
-          <a:ext cx="3315335" cy="13335"/>
+          <a:ext cx="3163570" cy="13335"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4808,7 +6816,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8733155" y="51548665"/>
+          <a:off x="8581390" y="51548665"/>
           <a:ext cx="1569720" cy="568325"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -4981,7 +6989,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="2209800" y="49625250"/>
-          <a:ext cx="5981700" cy="19050"/>
+          <a:ext cx="5829935" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5349,7 +7357,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6304280" y="48117760"/>
-          <a:ext cx="1595755" cy="1209675"/>
+          <a:ext cx="1443990" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5502,7 +7510,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12375515" y="50053240"/>
+          <a:off x="12223750" y="50053240"/>
           <a:ext cx="724535" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5665,7 +7673,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6511290" y="48623220"/>
-          <a:ext cx="1301115" cy="330200"/>
+          <a:ext cx="1149350" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5989,7 +7997,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5723890" y="47576740"/>
-          <a:ext cx="1534795" cy="346075"/>
+          <a:ext cx="1383030" cy="346075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6464,7 +8472,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7936230" y="44834175"/>
+          <a:off x="7784465" y="44834175"/>
           <a:ext cx="934720" cy="569595"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6628,7 +8636,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11380470" y="45594270"/>
+          <a:off x="11228705" y="45594270"/>
           <a:ext cx="480695" cy="6729095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6780,7 +8788,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8731885" y="48053625"/>
+          <a:off x="8580120" y="48053625"/>
           <a:ext cx="2650490" cy="13970"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6827,7 +8835,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8795385" y="50377725"/>
+          <a:off x="8643620" y="50377725"/>
           <a:ext cx="2567940" cy="10795"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6874,7 +8882,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9286875" y="50199290"/>
+          <a:off x="9135110" y="50199290"/>
           <a:ext cx="1534795" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7038,7 +9046,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8658225" y="50977800"/>
+          <a:off x="8506460" y="50977800"/>
           <a:ext cx="2647950" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -7085,7 +9093,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9238615" y="50838100"/>
+          <a:off x="9086850" y="50838100"/>
           <a:ext cx="1600835" cy="340360"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7249,7 +9257,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8700770" y="48637825"/>
+          <a:off x="8549005" y="48637825"/>
           <a:ext cx="2672080" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -7296,7 +9304,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12355830" y="48918495"/>
+          <a:off x="12204065" y="48918495"/>
           <a:ext cx="724535" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7461,7 +9469,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12718415" y="49373155"/>
+          <a:off x="12566650" y="49373155"/>
           <a:ext cx="19685" cy="680085"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -7512,7 +9520,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12094210" y="49545875"/>
+          <a:off x="11942445" y="49545875"/>
           <a:ext cx="1315085" cy="302260"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7682,7 +9690,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9404350" y="47930435"/>
+          <a:off x="9252585" y="47930435"/>
           <a:ext cx="1534795" cy="346075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7849,7 +9857,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="4876165" y="48952785"/>
-          <a:ext cx="2285365" cy="2291080"/>
+          <a:ext cx="2133600" cy="2291080"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8531,7 +10539,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7338060" y="71280020"/>
+          <a:off x="7186295" y="71280020"/>
           <a:ext cx="960120" cy="1296670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9038,7 +11046,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="5683885" y="75191620"/>
-          <a:ext cx="2291715" cy="1270"/>
+          <a:ext cx="2139950" cy="1270"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9406,7 +11414,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525770" y="80105885"/>
-          <a:ext cx="1595755" cy="1209675"/>
+          <a:ext cx="1443990" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9559,7 +11567,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9013190" y="76732765"/>
+          <a:off x="8861425" y="76732765"/>
           <a:ext cx="724535" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -9714,7 +11722,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5863590" y="80636745"/>
-          <a:ext cx="1054100" cy="606425"/>
+          <a:ext cx="902335" cy="606425"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9870,7 +11878,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6076315" y="74905870"/>
-          <a:ext cx="1772285" cy="607060"/>
+          <a:ext cx="1620520" cy="607060"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -10833,7 +12841,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8046720" y="73254870"/>
+          <a:off x="7894955" y="73254870"/>
           <a:ext cx="480695" cy="6729095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10986,7 +12994,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5664835" y="74556620"/>
-          <a:ext cx="2376805" cy="4445"/>
+          <a:ext cx="2225040" cy="4445"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11449,7 +13457,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9012555" y="75083670"/>
+          <a:off x="8860790" y="75083670"/>
           <a:ext cx="724535" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -11606,7 +13614,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9375775" y="75537695"/>
+          <a:off x="9224010" y="75537695"/>
           <a:ext cx="635" cy="1195070"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -11653,7 +13661,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9236710" y="75853925"/>
+          <a:off x="9084945" y="75853925"/>
           <a:ext cx="1772285" cy="607060"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -11812,7 +13820,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6194425" y="74134345"/>
-          <a:ext cx="1534795" cy="640715"/>
+          <a:ext cx="1383030" cy="640715"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -12784,8 +14792,8 @@
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
       <xdr:row>263</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
@@ -12823,13 +14831,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>183515</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>218440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12846,8 +14854,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2127250" y="21824315"/>
-          <a:ext cx="5591175" cy="5636260"/>
+          <a:off x="2127250" y="21823680"/>
+          <a:ext cx="5817235" cy="5864860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13034,7 +15042,7 @@
               <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
-                <a:t>Reposity</a:t>
+                <a:t>Repository</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
             </a:p>
@@ -14541,7 +16549,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1739900" y="29585920"/>
-          <a:ext cx="5942965" cy="2414270"/>
+          <a:ext cx="5791200" cy="2414270"/>
           <a:chOff x="10710" y="10665"/>
           <a:chExt cx="9359" cy="2009"/>
         </a:xfrm>
@@ -15466,7 +17474,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1543050" y="34042350"/>
-          <a:ext cx="7352665" cy="3554095"/>
+          <a:ext cx="7200900" cy="3554095"/>
           <a:chOff x="10635" y="15750"/>
           <a:chExt cx="11579" cy="2940"/>
         </a:xfrm>
@@ -15765,7 +17773,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="11025" y="16424"/>
-            <a:ext cx="3899" cy="705"/>
+            <a:ext cx="4097" cy="705"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -16919,7 +18927,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8465820" y="45424725"/>
+          <a:off x="8314055" y="45424725"/>
           <a:ext cx="11430" cy="7381875"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -16968,7 +18976,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9400540" y="48464470"/>
+          <a:off x="9248775" y="48464470"/>
           <a:ext cx="1572260" cy="397510"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -17132,7 +19140,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8125460" y="48487330"/>
+          <a:off x="7973695" y="48487330"/>
           <a:ext cx="313690" cy="324485"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -17291,7 +19299,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="7161530" y="48623220"/>
+          <a:off x="7009765" y="48623220"/>
           <a:ext cx="963295" cy="26670"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector4">
@@ -17341,7 +19349,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8087995" y="50690145"/>
+          <a:off x="7936230" y="50690145"/>
           <a:ext cx="398780" cy="391795"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -17500,7 +19508,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="7102475" y="49327435"/>
+          <a:off x="6950710" y="49327435"/>
           <a:ext cx="985520" cy="1558925"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
@@ -18178,7 +20186,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11861165" y="48957865"/>
+          <a:off x="11709400" y="48957865"/>
           <a:ext cx="494030" cy="187960"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -18230,7 +20238,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11870055" y="50105310"/>
+          <a:off x="11718290" y="50105310"/>
           <a:ext cx="504825" cy="174625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -18280,7 +20288,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11649075" y="55016400"/>
+          <a:off x="11497310" y="55016400"/>
           <a:ext cx="11430" cy="7381875"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -18815,7 +20823,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8210550" y="55375175"/>
+          <a:off x="8058785" y="55375175"/>
           <a:ext cx="480695" cy="6729095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18965,7 +20973,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11129010" y="54620795"/>
+          <a:off x="10977245" y="54620795"/>
           <a:ext cx="960120" cy="363220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19122,7 +21130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2187575" y="57021095"/>
-          <a:ext cx="6032500" cy="5080"/>
+          <a:ext cx="5880735" cy="5080"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -19169,7 +21177,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="4857115" y="57473850"/>
-          <a:ext cx="3315335" cy="13335"/>
+          <a:ext cx="3163570" cy="13335"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -19218,7 +21226,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="4942205" y="59042935"/>
-          <a:ext cx="2159635" cy="1346200"/>
+          <a:ext cx="2007870" cy="1346200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -19312,7 +21320,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="2209800" y="59340750"/>
-          <a:ext cx="5981700" cy="19050"/>
+          <a:ext cx="5829935" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -19680,7 +21688,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6304280" y="57833260"/>
-          <a:ext cx="1595755" cy="1209675"/>
+          <a:ext cx="1443990" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19833,7 +21841,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12375515" y="59768740"/>
+          <a:off x="12223750" y="59768740"/>
           <a:ext cx="724535" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -19996,7 +22004,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6511290" y="58338720"/>
-          <a:ext cx="1301115" cy="330200"/>
+          <a:ext cx="1149350" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -20320,7 +22328,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5723890" y="57292240"/>
-          <a:ext cx="1534795" cy="346075"/>
+          <a:ext cx="1383030" cy="346075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -20795,7 +22803,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7936230" y="54549675"/>
+          <a:off x="7784465" y="54549675"/>
           <a:ext cx="934720" cy="569595"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -20959,7 +22967,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11380470" y="55309770"/>
+          <a:off x="11228705" y="55309770"/>
           <a:ext cx="480695" cy="6729095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21111,7 +23119,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8731885" y="57769125"/>
+          <a:off x="8580120" y="57769125"/>
           <a:ext cx="2650490" cy="13970"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -21158,7 +23166,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8700770" y="58353325"/>
+          <a:off x="8549005" y="58353325"/>
           <a:ext cx="2672080" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -21205,7 +23213,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12355830" y="58633995"/>
+          <a:off x="12204065" y="58633995"/>
           <a:ext cx="724535" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -21370,7 +23378,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12718415" y="59088655"/>
+          <a:off x="12566650" y="59088655"/>
           <a:ext cx="19685" cy="680085"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -21421,7 +23429,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12094210" y="59261375"/>
+          <a:off x="11942445" y="59261375"/>
           <a:ext cx="1315085" cy="302260"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -21591,7 +23599,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9404350" y="57645935"/>
+          <a:off x="9252585" y="57645935"/>
           <a:ext cx="1534795" cy="346075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -21755,7 +23763,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8465820" y="55140225"/>
+          <a:off x="8314055" y="55140225"/>
           <a:ext cx="11430" cy="7381875"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -21804,7 +23812,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9400540" y="58179970"/>
+          <a:off x="9248775" y="58179970"/>
           <a:ext cx="1572260" cy="397510"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -21968,7 +23976,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8125460" y="58202830"/>
+          <a:off x="7973695" y="58202830"/>
           <a:ext cx="313690" cy="324485"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -22127,7 +24135,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="7161530" y="58338720"/>
+          <a:off x="7009765" y="58338720"/>
           <a:ext cx="963295" cy="26670"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector4">
@@ -22492,7 +24500,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11861165" y="58673365"/>
+          <a:off x="11709400" y="58673365"/>
           <a:ext cx="494030" cy="187960"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -22544,7 +24552,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11870055" y="59820810"/>
+          <a:off x="11718290" y="59820810"/>
           <a:ext cx="504825" cy="174625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -22594,7 +24602,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8320405" y="57250330"/>
+          <a:off x="8168640" y="57250330"/>
           <a:ext cx="893445" cy="347345"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -22751,7 +24759,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5283835" y="59662695"/>
-          <a:ext cx="1962150" cy="347345"/>
+          <a:ext cx="1810385" cy="347345"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -23277,7 +25285,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="1995805" y="40464740"/>
-          <a:ext cx="5606415" cy="1086485"/>
+          <a:ext cx="5454650" cy="1086485"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector4">
           <a:avLst>
@@ -23865,8 +25873,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6816090" y="38638480"/>
-          <a:ext cx="304165" cy="314325"/>
+          <a:off x="6706235" y="38638480"/>
+          <a:ext cx="262255" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -24628,7 +26636,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -24751,15 +26759,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>86360</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>96520</xdr:rowOff>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>78740</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>36195</xdr:rowOff>
+      <xdr:rowOff>29210</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -24768,8 +26776,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1457960" y="1191895"/>
-          <a:ext cx="1186180" cy="454025"/>
+          <a:off x="1450975" y="1085215"/>
+          <a:ext cx="1370965" cy="553720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25030,13 +27038,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>67945</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>78740</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>5715</xdr:rowOff>
+      <xdr:rowOff>4445</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -25048,12 +27056,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1">
-          <a:off x="1439545" y="1419225"/>
-          <a:ext cx="17780" cy="1053465"/>
+          <a:off x="1439545" y="1362075"/>
+          <a:ext cx="10795" cy="1109345"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -1339286"/>
+            <a:gd name="adj1" fmla="val -2205882"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -27560,8 +29568,8 @@
   <sheetPr/>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -27764,8 +29772,8 @@
   <sheetPr/>
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -27782,127 +29790,127 @@
       </c>
     </row>
     <row r="3" ht="14.25" spans="2:2">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:3">
-      <c r="B4" s="8"/>
+      <c r="B4" s="9"/>
       <c r="C4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="2:3">
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:3">
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
       <c r="C6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:3">
-      <c r="B7" s="8"/>
+      <c r="B7" s="9"/>
       <c r="C7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="2:2">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="2:3">
-      <c r="B9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="2:3">
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="2:3">
-      <c r="B11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:3">
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="C12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="2:2">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="2:3">
-      <c r="B14" s="8"/>
+      <c r="B14" s="9"/>
       <c r="C14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="2:3">
-      <c r="B15" s="8"/>
+      <c r="B15" s="9"/>
       <c r="C15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="2:3">
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
       <c r="C16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="2:4">
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
       <c r="D17" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="2:4">
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
       <c r="D18" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="2:3">
-      <c r="B19" s="8"/>
+      <c r="B19" s="9"/>
       <c r="C19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="2:3">
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="2:3">
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="1"/>
     </row>
     <row r="22" ht="14.25" spans="2:2">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="2:3">
-      <c r="B23" s="8"/>
+      <c r="B23" s="9"/>
       <c r="C23" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="2:3">
-      <c r="B24" s="8"/>
+      <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>42</v>
       </c>
@@ -27944,11 +29952,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C20" r:id="rId1" display="http://localhost:8081/application01/swagger-ui/index.html"/>
+    <hyperlink ref="C20" r:id="rId2" display="http://localhost:8081/application01/swagger-ui/index.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27957,13 +29966,14 @@
   <sheetPr/>
   <dimension ref="A1:AC220"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="G202" sqref="G202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5"/>
   <cols>
     <col min="2" max="2" width="9" style="4"/>
+    <col min="10" max="10" width="7.00833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
@@ -28150,179 +30160,221 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" ht="27" spans="2:3">
+    <row r="25" ht="27" spans="2:5">
       <c r="B25" s="6"/>
       <c r="C25" s="5"/>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="26" ht="27" spans="2:3">
       <c r="B26" s="6"/>
       <c r="C26" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:12">
       <c r="B28" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="J28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L28" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:12">
       <c r="B29" s="5"/>
+      <c r="I29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1" spans="3:9">
       <c r="C30" s="8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="F30" s="8" t="s">
-        <v>65</v>
+      <c r="D30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>71</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" ht="20" customHeight="1" spans="3:9">
-      <c r="C31" s="9" t="s">
-        <v>66</v>
+      <c r="C31" s="8" t="s">
+        <v>72</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="F31" s="8" t="s">
-        <v>67</v>
+      <c r="D31" s="9"/>
+      <c r="F31" s="9" t="s">
+        <v>73</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" ht="20" customHeight="1" spans="2:9">
       <c r="B32" s="5"/>
       <c r="C32" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>69</v>
+      <c r="D32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>75</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" ht="20" customHeight="1" spans="2:9">
       <c r="B33" s="5"/>
       <c r="C33" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="F33" s="8" t="s">
-        <v>71</v>
+      <c r="D33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>77</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="34" ht="20" customHeight="1" spans="2:9">
+    <row r="34" ht="20" customHeight="1" spans="2:12">
       <c r="B34" s="5"/>
       <c r="C34" s="8" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="F34" s="8" t="s">
-        <v>73</v>
+      <c r="D34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>80</v>
       </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="35" ht="20" customHeight="1" spans="2:9">
+    <row r="35" ht="20" customHeight="1" spans="2:12">
       <c r="B35" s="5"/>
       <c r="C35" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="F35" s="8" t="s">
-        <v>75</v>
+      <c r="D35" s="9"/>
+      <c r="F35" s="9" t="s">
+        <v>81</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1" spans="3:9">
       <c r="C36" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="F36" s="8" t="s">
-        <v>77</v>
+      <c r="D36" s="9"/>
+      <c r="F36" s="9" t="s">
+        <v>83</v>
       </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
     </row>
     <row r="37" ht="20" customHeight="1" spans="3:9">
-      <c r="C37" s="9" t="s">
-        <v>78</v>
+      <c r="C37" s="8" t="s">
+        <v>84</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="F37" s="8" t="s">
-        <v>79</v>
+      <c r="D37" s="9"/>
+      <c r="F37" s="9" t="s">
+        <v>85</v>
       </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
     </row>
     <row r="38" ht="20" customHeight="1" spans="2:9">
       <c r="B38" s="5"/>
       <c r="C38" s="10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="F38" s="8" t="s">
-        <v>81</v>
+      <c r="D38" s="9"/>
+      <c r="F38" s="9" t="s">
+        <v>87</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
     </row>
     <row r="39" ht="20" customHeight="1" spans="3:9">
-      <c r="C39" s="8" t="s">
-        <v>82</v>
+      <c r="C39" s="9" t="s">
+        <v>88</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="F39" s="8" t="s">
-        <v>83</v>
+      <c r="D39" s="9"/>
+      <c r="F39" s="9" t="s">
+        <v>89</v>
       </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" ht="20" customHeight="1" spans="3:9">
-      <c r="C40" s="9" t="s">
-        <v>84</v>
+      <c r="C40" s="8" t="s">
+        <v>90</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="F40" s="8" t="s">
-        <v>85</v>
+      <c r="D40" s="9"/>
+      <c r="F40" s="9" t="s">
+        <v>91</v>
       </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="5"/>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="5"/>
       <c r="C44" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="2:3">
@@ -28332,19 +30384,19 @@
     <row r="46" ht="26.25" spans="2:3">
       <c r="B46" s="5"/>
       <c r="C46" s="11" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="3:4">
       <c r="C47" s="11"/>
       <c r="D47" s="12" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="3:4">
       <c r="C48" s="11"/>
       <c r="D48" s="13" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="3:3">
@@ -28352,21 +30404,21 @@
     </row>
     <row r="50" spans="3:29">
       <c r="C50" s="11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AC50" s="14"/>
     </row>
     <row r="51" spans="3:29">
       <c r="C51" s="11"/>
       <c r="D51" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AC51" s="14"/>
     </row>
     <row r="52" spans="3:29">
       <c r="C52" s="11"/>
       <c r="D52" s="13" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="AC52" s="14"/>
     </row>
@@ -28377,21 +30429,21 @@
     <row r="54" spans="3:29">
       <c r="C54" s="11"/>
       <c r="D54" s="15" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AC54" s="14"/>
     </row>
     <row r="55" spans="3:29">
       <c r="C55" s="11"/>
       <c r="D55" s="14" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AC55" s="14"/>
     </row>
     <row r="56" spans="3:29">
       <c r="C56" s="11"/>
       <c r="D56" s="13" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AC56" s="14"/>
     </row>
@@ -28401,21 +30453,21 @@
     </row>
     <row r="58" spans="3:29">
       <c r="C58" s="11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AC58" s="14"/>
     </row>
     <row r="59" spans="3:29">
       <c r="C59" s="11"/>
       <c r="D59" s="14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC59" s="14"/>
     </row>
     <row r="60" spans="3:29">
       <c r="C60" s="16"/>
       <c r="D60" s="13" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AC60" s="14"/>
     </row>
@@ -28425,13 +30477,13 @@
     </row>
     <row r="62" spans="4:29">
       <c r="D62" s="14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AC62" s="14"/>
     </row>
     <row r="63" spans="4:29">
       <c r="D63" s="13" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AC63" s="14"/>
     </row>
@@ -28441,7 +30493,7 @@
     </row>
     <row r="65" spans="4:29">
       <c r="D65" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AC65" s="14"/>
     </row>
@@ -28450,62 +30502,62 @@
     </row>
     <row r="67" spans="3:29">
       <c r="C67" s="16" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AC67" s="13" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="4:4">
       <c r="D90" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="4:4">
       <c r="D91" s="15" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="3:4">
       <c r="C102" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D102" s="18"/>
     </row>
     <row r="103" spans="3:4">
       <c r="C103" s="18"/>
       <c r="D103" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="4:4">
       <c r="D104" s="19" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="138" spans="3:3">
       <c r="C138" s="5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="140" spans="1:17">
@@ -29025,7 +31077,7 @@
       <c r="A167" s="20"/>
       <c r="B167" s="21"/>
       <c r="C167" s="5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D167" s="20"/>
       <c r="E167" s="20"/>
@@ -29538,33 +31590,33 @@
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="198" spans="3:3">
       <c r="C198" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="199" spans="3:4">
       <c r="C199" s="2"/>
       <c r="D199" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="200" spans="3:3">
       <c r="C200" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="201" spans="4:4">
       <c r="D201" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" s="5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="220" spans="2:2">
@@ -29587,24 +31639,24 @@
   <sheetPr/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" ht="18.75" spans="1:2">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" ht="18.75" spans="1:1">
@@ -29627,7 +31679,7 @@
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="4:4">
@@ -29642,27 +31694,27 @@
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="5:5">
       <c r="E14" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="3:3">
@@ -29672,28 +31724,28 @@
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="3"/>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -29710,33 +31762,33 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="18.75" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -29744,78 +31796,116 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="4:11">
       <c r="D41" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E41" t="s">
-        <v>142</v>
+        <v>148</v>
+      </c>
+      <c r="I41" t="s">
+        <v>149</v>
+      </c>
+      <c r="K41" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="4:11">
       <c r="D43" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E43" s="22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="3" t="s">
-        <v>144</v>
+      <c r="I43" t="s">
+        <v>152</v>
+      </c>
+      <c r="K43" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="47" spans="3:3">
-      <c r="C47" t="s">
-        <v>145</v>
+    <row r="45" spans="2:8">
+      <c r="B45" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H45" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="48" spans="4:4">
-      <c r="D48" t="s">
-        <v>146</v>
+    <row r="46" spans="9:9">
+      <c r="I46" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="49" spans="4:4">
+    <row r="47" spans="3:10">
+      <c r="C47" t="s">
+        <v>157</v>
+      </c>
+      <c r="J47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10">
+      <c r="D48" t="s">
+        <v>159</v>
+      </c>
+      <c r="J48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="4:11">
       <c r="D49" t="s">
-        <v>147</v>
+        <v>161</v>
+      </c>
+      <c r="J49" t="s">
+        <v>162</v>
+      </c>
+      <c r="K49" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="4:8">
       <c r="D51" t="s">
-        <v>149</v>
+        <v>165</v>
+      </c>
+      <c r="H51" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="3:9">
       <c r="C52" t="s">
-        <v>150</v>
+        <v>167</v>
+      </c>
+      <c r="I52" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="3" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" s="22" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="3:3">
@@ -29825,7 +31915,7 @@
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -29845,42 +31935,42 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="18.75" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="3" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="1" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -29897,38 +31987,38 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="18.75" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" s="3" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -29942,25 +32032,25 @@
   <sheetPr/>
   <dimension ref="B3:B5"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -29974,15 +32064,15 @@
   <sheetPr/>
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
